--- a/WebApplication1/WebApplication1/示例测试目录/弃单/待刷失败原因弃单.xlsx
+++ b/WebApplication1/WebApplication1/示例测试目录/弃单/待刷失败原因弃单.xlsx
@@ -14,579 +14,258 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>弃单号</t>
   </si>
   <si>
-    <t>264ec070-6ca1-45ef-9885-299184b54e2b</t>
-  </si>
-  <si>
-    <t>1a6b2475-0d9e-4055-9014-7be7292b95a9</t>
-  </si>
-  <si>
-    <t>ecb7c423-1d29-47d8-b414-047532e48868</t>
-  </si>
-  <si>
-    <t>dc46a503-e7d8-4710-99f5-d5dd864e673e</t>
-  </si>
-  <si>
-    <t>a9c1f84e-8b49-427c-8e5d-22bbb8dc098c</t>
-  </si>
-  <si>
-    <t>8a46c84c-adeb-410a-8a6a-1723b02d5074</t>
-  </si>
-  <si>
-    <t>8bab5760-7b12-4ff2-b5c3-ba28a2a4976b</t>
-  </si>
-  <si>
-    <t>694a0c66-e091-469c-9895-9bd0b6921b72</t>
-  </si>
-  <si>
-    <t>96d5b8c1-797c-41a5-8b13-17b00192d8f2</t>
-  </si>
-  <si>
-    <t>7e8996c1-2a68-4b23-9e6e-f1f6ff8aaf7e</t>
-  </si>
-  <si>
-    <t>a537c7ff-55fa-4230-bb3a-0e269fa1ca6c</t>
-  </si>
-  <si>
-    <t>6c7e9ea1-0c31-435d-9400-d9d305194285</t>
-  </si>
-  <si>
-    <t>b1ece928-129e-4079-ab0f-23f875a66e10</t>
-  </si>
-  <si>
-    <t>75f6eafe-afa3-410a-8136-ae789ff60e12</t>
-  </si>
-  <si>
-    <t>2b5c109d-c172-49df-ae1b-2d5083a0587c</t>
-  </si>
-  <si>
-    <t>08ade4ff-644e-4209-8327-4c21ad90dbf9</t>
-  </si>
-  <si>
-    <t>178be95c-e0eb-4a31-b550-20874c7bbb70</t>
-  </si>
-  <si>
-    <t>b9e77a67-885e-4014-9e24-3809182531e6</t>
-  </si>
-  <si>
-    <t>0014c879-7327-41fb-8e2c-9495ab63b046</t>
-  </si>
-  <si>
-    <t>c939c0c9-feac-4b4d-b511-aede61916879</t>
-  </si>
-  <si>
-    <t>568474cc-c4db-4195-864d-899736cb84bc</t>
-  </si>
-  <si>
-    <t>8074b392-ee20-46ec-9532-f8f470c95284</t>
-  </si>
-  <si>
-    <t>babf5d6e-10a7-45c2-abe8-21e20dec2e44</t>
-  </si>
-  <si>
-    <t>a32d994a-cbb4-4bc3-be00-cddeb61fb0a6</t>
-  </si>
-  <si>
-    <t>e82bdf25-fef7-4fb1-b279-ed62283c5a9c</t>
-  </si>
-  <si>
-    <t>91e08252-6a3d-4399-accb-4fb324a96275</t>
-  </si>
-  <si>
-    <t>4a48f899-0a38-4abe-ace1-382a4741ddf1</t>
-  </si>
-  <si>
-    <t>74ae876e-a933-4249-9ee3-9a4e17029a07</t>
-  </si>
-  <si>
-    <t>d57892e4-98a5-40ec-808b-9699fb517418</t>
-  </si>
-  <si>
-    <t>c7fcc3d0-011c-4fcd-a1bb-2b2779efc03c</t>
-  </si>
-  <si>
-    <t>889eb154-c669-4338-97c4-1f7cbbdc54ff</t>
-  </si>
-  <si>
-    <t>821f68df-e9b4-4569-944f-35c9ac569121</t>
-  </si>
-  <si>
-    <t>b5baf801-ce36-4acc-82ac-3c05f303f521</t>
-  </si>
-  <si>
-    <t>ad56ee95-cbb4-40f8-af23-1377da041e92</t>
-  </si>
-  <si>
-    <t>1aed5342-b808-4a6c-9d3f-eb001c534cc9</t>
-  </si>
-  <si>
-    <t>d8ddd7fb-1b4b-448f-a82c-98517ad60fc5</t>
-  </si>
-  <si>
-    <t>5775eff4-7b6c-4937-87b7-9fd985978664</t>
-  </si>
-  <si>
-    <t>da572215-c360-40a7-965d-81253870c459</t>
-  </si>
-  <si>
-    <t>98ca88ab-3055-4010-bc83-a5d8d1bc4b9e</t>
-  </si>
-  <si>
-    <t>99fcb36b-1694-46db-82e7-5cea073b7347</t>
-  </si>
-  <si>
-    <t>6eacd56c-846b-419f-89c7-12ed5d27f0bb</t>
-  </si>
-  <si>
-    <t>13170ee1-f966-41ab-974f-53fc7f13c66c</t>
-  </si>
-  <si>
-    <t>0188cc24-7c95-4e77-b24d-ff90f0bc5fb8</t>
-  </si>
-  <si>
-    <t>7404e6a3-ef81-4b99-a510-a360d80c603a</t>
-  </si>
-  <si>
-    <t>ae467b34-ba3b-453a-a673-f60e91c557db</t>
-  </si>
-  <si>
-    <t>727beae7-b57d-445a-b5d2-a6d4f344963e</t>
-  </si>
-  <si>
-    <t>38c9bf58-2fc5-4aa4-a883-0c34a2a38341</t>
-  </si>
-  <si>
-    <t>4437d4d7-cbf1-42d1-bf70-cc541b6f2ca5</t>
-  </si>
-  <si>
-    <t>8ead4fb2-3509-490f-b07b-9e664934204c</t>
-  </si>
-  <si>
-    <t>d5746596-736a-40fc-87d2-d929f2a85692</t>
-  </si>
-  <si>
-    <t>5ba2f229-9cc5-492e-abd5-32d89b421f41</t>
-  </si>
-  <si>
-    <t>4ba47047-e3cd-4646-8cc8-477088214893</t>
-  </si>
-  <si>
-    <t>7196cc3f-8589-4d01-af9e-051016c9cf2f</t>
-  </si>
-  <si>
-    <t>c8302b56-386b-41b8-bf2b-bc87b87c2546</t>
-  </si>
-  <si>
-    <t>54090bea-1338-4ca6-a594-a4aef3b73468</t>
-  </si>
-  <si>
-    <t>0766dd3a-14ec-4ddc-89e2-bdfcc57b1102</t>
-  </si>
-  <si>
-    <t>f6d7655f-823f-4477-bc16-3a4a8b1ba933</t>
-  </si>
-  <si>
-    <t>d1f51355-555d-444d-b21a-e9ccf1193439</t>
-  </si>
-  <si>
-    <t>8ee4ef56-8026-4f1f-a169-2a3d53fdbfa9</t>
-  </si>
-  <si>
-    <t>d7f66c9f-6e75-461f-af31-0c204c102695</t>
-  </si>
-  <si>
-    <t>126eb0ec-54b0-475e-babe-e85b2c5511aa</t>
-  </si>
-  <si>
-    <t>789bed38-db63-4136-a056-ae3f68467d4b</t>
-  </si>
-  <si>
-    <t>b23d9524-c8d5-474b-8ba9-8fe11dd49d58</t>
-  </si>
-  <si>
-    <t>25dabc9c-8c98-451c-9fa8-3b447acce7d0</t>
-  </si>
-  <si>
-    <t>edbb9527-0322-40ff-a15e-cc6318332586</t>
-  </si>
-  <si>
-    <t>2f8cce56-b746-4183-b799-8d9aa79d8fb8</t>
-  </si>
-  <si>
-    <t>24a1768c-94e6-49a8-9897-0b707efeb031</t>
-  </si>
-  <si>
-    <t>8e5a4bb9-463b-45f1-9751-8de558000679</t>
-  </si>
-  <si>
-    <t>3a8c4f9a-b7db-408d-abb5-6259a8f499d3</t>
-  </si>
-  <si>
-    <t>aa7e3ec6-4c10-4d35-b295-1d0852275c47</t>
-  </si>
-  <si>
-    <t>bb9ac3ae-09ae-4cdb-bebc-ff1778546a10</t>
-  </si>
-  <si>
-    <t>52bebba5-9495-4c0b-aecc-99edb0ad2676</t>
-  </si>
-  <si>
-    <t>c40236be-8e63-43b3-bf7d-6700ae27256b</t>
-  </si>
-  <si>
-    <t>77b55aa7-6d5c-4b1e-af83-8a46d465c043</t>
-  </si>
-  <si>
-    <t>e5afca66-559e-451e-b844-582d4d775d1b</t>
-  </si>
-  <si>
-    <t>70cda2f0-1fa8-4680-a78a-103a4ae7bd9b</t>
-  </si>
-  <si>
-    <t>aa806627-8f46-4d2a-8c39-2d15c57401f9</t>
-  </si>
-  <si>
-    <t>4f28bf1c-df13-4fac-8c65-fb93f3e22d55</t>
-  </si>
-  <si>
-    <t>c9933b58-1e7e-42d9-b281-fdde7f35de93</t>
-  </si>
-  <si>
-    <t>b4cedb81-30d0-4aa7-8c89-57e57281bc71</t>
-  </si>
-  <si>
-    <t>ef07dad6-55b8-4266-98ef-c53d6adc6499</t>
-  </si>
-  <si>
-    <t>a787f500-a800-47fd-ab4d-0c18527744c6</t>
-  </si>
-  <si>
-    <t>1b210756-599e-47da-9fbb-06c909abdd31</t>
-  </si>
-  <si>
-    <t>e4a0b01e-523b-4581-8e5c-daf1b235d6b7</t>
-  </si>
-  <si>
-    <t>3e20583f-5c03-495c-af79-b9a30ad120ed</t>
-  </si>
-  <si>
-    <t>ac129834-fe29-4485-9ab8-1a3a5495c892</t>
-  </si>
-  <si>
-    <t>16456bc2-2438-47f0-9d68-a5ffda3ffb36</t>
-  </si>
-  <si>
-    <t>d31bccd8-a1f5-465a-875d-2c464caf5091</t>
-  </si>
-  <si>
-    <t>1bc8e77f-396d-46da-9e29-9b844e0421a0</t>
-  </si>
-  <si>
-    <t>232e2de7-45d1-44cd-9018-b017a8cdff10</t>
-  </si>
-  <si>
-    <t>fc361be5-64a5-4063-889e-d34dd0e38c61</t>
-  </si>
-  <si>
-    <t>e8f15518-0f4f-4f6c-9135-24420f2d325d</t>
-  </si>
-  <si>
-    <t>141400dc-533b-4558-9d40-b8435381d7c9</t>
-  </si>
-  <si>
-    <t>a1d159ac-5343-470d-95b5-1a194ab7dff5</t>
-  </si>
-  <si>
-    <t>2744391a-9bc7-485d-a73e-a3ba5436b7a4</t>
-  </si>
-  <si>
-    <t>a2bbba45-f018-4d2f-bfda-02ab48e11d72</t>
-  </si>
-  <si>
-    <t>59f00cf9-e54f-4d9f-b1fc-274cee21858b</t>
-  </si>
-  <si>
-    <t>3a70dcf8-321a-4a92-a966-c55efb1f98f2</t>
-  </si>
-  <si>
-    <t>575fed28-72f6-4beb-888d-3c857e242d82</t>
-  </si>
-  <si>
-    <t>25cffbcd-9754-44c5-8b37-af7f038b5389</t>
-  </si>
-  <si>
-    <t>36a0d784-96fb-406b-ad72-f1ccdeaf7c6e</t>
-  </si>
-  <si>
-    <t>340383b4-057f-459e-8f67-f891a361683e</t>
-  </si>
-  <si>
-    <t>96a0d889-e591-4f8a-ab65-c247181dbde9</t>
-  </si>
-  <si>
-    <t>f802e6fd-4247-4f65-8c17-bca9e6af36c9</t>
-  </si>
-  <si>
-    <t>3e3da267-9ddf-4a01-bb2f-854b3f712cb4</t>
-  </si>
-  <si>
-    <t>6b0436a4-78ff-4a10-a8e4-9b54cc7e1cba</t>
-  </si>
-  <si>
-    <t>d4412ce3-5f04-43b3-bcbf-50828a3ba97f</t>
-  </si>
-  <si>
-    <t>ea9daff8-024d-4c6b-a887-3e8bdcbf59f5</t>
-  </si>
-  <si>
-    <t>de8381dd-cbe0-4eeb-96d5-2b90ffb7f172</t>
-  </si>
-  <si>
-    <t>7d38b095-094e-4d17-970a-d779fc0598de</t>
-  </si>
-  <si>
-    <t>780a8986-af73-40a5-978e-60b07f3a3a47</t>
-  </si>
-  <si>
-    <t>6cd6889f-6eb2-433f-a2cf-ea784d524e20</t>
-  </si>
-  <si>
-    <t>59af924a-8742-45eb-8bc8-dc6a2c8d88f7</t>
-  </si>
-  <si>
-    <t>f7a4d589-fba0-4e60-a753-efffc195ba20</t>
-  </si>
-  <si>
-    <t>1184daaf-e521-446b-ae75-6d12aecc8226</t>
-  </si>
-  <si>
-    <t>6c0f174c-dc4e-4bdc-ba81-e00b30e59732</t>
-  </si>
-  <si>
-    <t>16ecc243-1bcb-4639-afaa-4c213663fd62</t>
-  </si>
-  <si>
-    <t>901eb3fc-d053-4196-9029-494a49920389</t>
-  </si>
-  <si>
-    <t>0d7970b3-38fe-4a7c-8b12-500219b963b2</t>
-  </si>
-  <si>
-    <t>ebf662a3-5062-4d42-b1e8-c8abda9bb33e</t>
-  </si>
-  <si>
-    <t>5b0c2026-a8c9-4ed8-82af-0d4cfba28f31</t>
-  </si>
-  <si>
-    <t>75a81eca-c62d-4869-a912-69530932f812</t>
-  </si>
-  <si>
-    <t>34f56ce0-dabc-4c1a-972a-3b71d9caa71f</t>
-  </si>
-  <si>
-    <t>36624b66-d413-4794-80d2-b6ab66f73781</t>
-  </si>
-  <si>
-    <t>d9be7ffd-c6fd-4980-92cd-95b34975a269</t>
-  </si>
-  <si>
-    <t>82885a82-bf42-4df8-bce4-38b544880917</t>
-  </si>
-  <si>
-    <t>a84637e1-f738-40ff-ac54-d1f7bb95a922</t>
-  </si>
-  <si>
-    <t>c6358739-a70a-4e38-ac6c-1816541b0706</t>
-  </si>
-  <si>
-    <t>60417408-2a2c-4bbb-981d-883ff5ca7582</t>
-  </si>
-  <si>
-    <t>16dfb801-66d1-4e87-ac63-a933bb611a76</t>
-  </si>
-  <si>
-    <t>02a0b9b1-c675-4632-bc7c-c4da64deaa3b</t>
-  </si>
-  <si>
-    <t>cb16b475-c41e-445f-b3be-cb9c3244e338</t>
-  </si>
-  <si>
-    <t>49b3f2ba-3ba6-422e-ae47-16b62a9ee9bb</t>
-  </si>
-  <si>
-    <t>dbcec8cb-e807-4a2b-b0fe-4db6d9296a5b</t>
-  </si>
-  <si>
-    <t>e065b93d-af51-4336-a6fa-bff4eeb81324</t>
-  </si>
-  <si>
-    <t>7a2d652d-4065-439e-a5c3-b9fe504310bc</t>
-  </si>
-  <si>
-    <t>0234fec3-aaca-4a57-9441-4c8a86b26499</t>
-  </si>
-  <si>
-    <t>218897f0-6b7f-4bd1-af84-e70fd71711c9</t>
-  </si>
-  <si>
-    <t>61b2521f-12a4-4ccd-ad94-279bdd018bae</t>
-  </si>
-  <si>
-    <t>3ca0aad2-1765-46d7-98f8-ffe959269f65</t>
-  </si>
-  <si>
-    <t>5ee7915a-770b-4b50-96db-14f5c856869f</t>
-  </si>
-  <si>
-    <t>bae2c33c-87ba-4460-b8ee-22ca6a70c0b1</t>
-  </si>
-  <si>
-    <t>c3da1d98-bab4-4ac3-a440-4f057fe33e5b</t>
-  </si>
-  <si>
-    <t>4066745c-6cf7-483d-865d-85230a6b9056</t>
-  </si>
-  <si>
-    <t>b8d5bd6f-725f-491d-af0e-2d4fbeba735e</t>
-  </si>
-  <si>
-    <t>3e36aca7-1042-4da2-8e78-3b71722d20c6</t>
-  </si>
-  <si>
-    <t>dce2fcad-0e12-43c4-a0aa-879d75cc71b9</t>
-  </si>
-  <si>
-    <t>21bface4-e3d1-4063-b395-40faa6df18f1</t>
-  </si>
-  <si>
-    <t>bf4d3e10-836d-43e8-aace-3276524b2b11</t>
-  </si>
-  <si>
-    <t>e0445b86-98cf-4f87-99cc-5a767f2f7869</t>
-  </si>
-  <si>
-    <t>61a08260-3b64-4409-89b3-6fd62518332e</t>
-  </si>
-  <si>
-    <t>534fcde1-f665-43a3-ac0f-8beb79616971</t>
-  </si>
-  <si>
-    <t>21998d35-733d-4b00-a804-1380faab878a</t>
-  </si>
-  <si>
-    <t>f10f59f3-669d-49c0-ac65-ae75bef9413a</t>
-  </si>
-  <si>
-    <t>f674e783-5874-4f8c-9c18-46444a77e57a</t>
-  </si>
-  <si>
-    <t>2228cb2d-3680-4a27-82fd-8cf8ef95f251</t>
-  </si>
-  <si>
-    <t>209aa311-4bdb-4b88-82b3-22dfa1dd19d6</t>
-  </si>
-  <si>
-    <t>4e822f8f-a60a-4538-9585-9f992fac7431</t>
-  </si>
-  <si>
-    <t>8f337eda-49db-401d-837e-ff6dc82efae0</t>
-  </si>
-  <si>
-    <t>06d795ff-5eed-4610-b282-c445ab5d6b51</t>
-  </si>
-  <si>
-    <t>cd4928af-ff70-4c90-94ef-749a504c644f</t>
-  </si>
-  <si>
-    <t>9e55c157-f0c7-449b-a2aa-ee40056a0020</t>
-  </si>
-  <si>
-    <t>dcba0c16-9ed7-410d-ae86-533042588268</t>
-  </si>
-  <si>
-    <t>4a6e5dd8-7aec-45fa-8ac4-2dabf6eabae7</t>
-  </si>
-  <si>
-    <t>577c2005-6c71-4ebf-9834-8af6a13664ae</t>
-  </si>
-  <si>
-    <t>581003f9-7029-4f43-a354-f347d361e0f2</t>
-  </si>
-  <si>
-    <t>a19fec87-a25d-40a5-980d-bede6a82b024</t>
-  </si>
-  <si>
-    <t>8a14700c-c02c-4422-bd0b-98c4b5b6d5f8</t>
-  </si>
-  <si>
-    <t>835ee9cd-cff9-4308-8c44-b97b24260669</t>
-  </si>
-  <si>
-    <t>a2debcf0-6b00-4b3f-bcdd-aaf98e9b8d1c</t>
-  </si>
-  <si>
-    <t>d3b582c4-a730-4d84-9ba0-efcfb6751613</t>
-  </si>
-  <si>
-    <t>b1a5ab12-1fc0-4466-87ee-5b89b845885e</t>
-  </si>
-  <si>
-    <t>42a288d7-62c8-42b7-99d4-0848c5580231</t>
-  </si>
-  <si>
-    <t>2071f638-95cc-4e2b-b809-d1dda61497b7</t>
-  </si>
-  <si>
-    <t>df2d45e1-0bcc-43df-87f5-ea28b250b830</t>
-  </si>
-  <si>
-    <t>90ee6c9d-487f-4760-9913-c73ce3cee377</t>
-  </si>
-  <si>
-    <t>244b333c-142a-48e4-aba2-d4c426511e64</t>
-  </si>
-  <si>
-    <t>be995472-ddcb-4bc4-a016-5acffc0b37f3</t>
-  </si>
-  <si>
-    <t>969458ef-ba77-463a-bed8-b151c38e3adc</t>
-  </si>
-  <si>
-    <t>ec04828b-2b64-4503-b05b-3725b6719e76</t>
-  </si>
-  <si>
-    <t>861f532a-6fb7-419e-9da8-65586db3d89b</t>
-  </si>
-  <si>
-    <t>c57848b0-ee22-4b9c-b740-8c9aa3d0f971</t>
-  </si>
-  <si>
-    <t>84ef5b80-cc5d-47f9-9489-9f8680434afd</t>
-  </si>
-  <si>
-    <t>3ca113cf-4bd3-48d1-b5a8-611b7a6ba33e</t>
-  </si>
-  <si>
-    <t>1cbc671a-2c6b-4dae-9e94-f7a98092a461</t>
-  </si>
-  <si>
-    <t>09e03e67-eade-4eac-9ca9-d24bf2ab00bb</t>
-  </si>
-  <si>
-    <t>c62e2203-3231-418a-ac63-0cde9a6c6577</t>
-  </si>
-  <si>
-    <t>00f4c51d-94e7-4523-a548-a7deb8fc9226</t>
-  </si>
-  <si>
-    <t>c824602e-8ae5-4efd-8da1-fb42c8bdbd45</t>
-  </si>
-  <si>
-    <t>f72cf26b-3d6d-477e-be45-7839bd401d84</t>
+    <t>e26f01ed-2409-4017-a4e8-148c03757c79</t>
+  </si>
+  <si>
+    <t>8c46df34-2878-4563-b3e6-41a20d34448b</t>
+  </si>
+  <si>
+    <t>b170abaf-cb22-4afe-ae4a-fd5f108bf218</t>
+  </si>
+  <si>
+    <t>537a7846-a2e9-4758-a039-cbda692f8f39</t>
+  </si>
+  <si>
+    <t>744ceadc-96af-4467-8006-c49725c0207d</t>
+  </si>
+  <si>
+    <t>a67b03eb-fa37-4b56-8ade-a839e57ebf8d</t>
+  </si>
+  <si>
+    <t>9a3294f2-59b9-41c3-8a29-2b67c10679f5</t>
+  </si>
+  <si>
+    <t>3cd75c71-aa27-4784-b494-343714ca69ae</t>
+  </si>
+  <si>
+    <t>49163b73-4998-4e62-994f-deabff7530db</t>
+  </si>
+  <si>
+    <t>6e2fc807-cbe0-454b-be9b-134c3dc7b2d3</t>
+  </si>
+  <si>
+    <t>136cbd89-bae3-4bd1-9383-8a4639bae272</t>
+  </si>
+  <si>
+    <t>f4e255ac-2da3-48dc-9b72-2843ae8013d1</t>
+  </si>
+  <si>
+    <t>3ebb4515-d40b-4344-947d-15e6b3b298ba</t>
+  </si>
+  <si>
+    <t>d7e9c062-e0bc-48ae-9356-ef5e35e4b3c7</t>
+  </si>
+  <si>
+    <t>82f0f2e9-7a22-4392-aa54-c953c596278e</t>
+  </si>
+  <si>
+    <t>e7d1d105-e1b9-441c-925a-f6fd57f01513</t>
+  </si>
+  <si>
+    <t>e78f9270-bdaa-4123-92e6-6e2baeb4dfc5</t>
+  </si>
+  <si>
+    <t>9b340caf-d3b3-4483-9a2e-e03163dee399</t>
+  </si>
+  <si>
+    <t>39f5d9eb-d683-42d5-af78-2649a3511a83</t>
+  </si>
+  <si>
+    <t>a19d0256-6409-4085-89c6-2b1fac9cab61</t>
+  </si>
+  <si>
+    <t>7a3ebf33-0cae-4d47-8e99-358329806e00</t>
+  </si>
+  <si>
+    <t>67ef9774-749b-4067-850b-5c0e6cf45b71</t>
+  </si>
+  <si>
+    <t>45589eab-7b49-4c1b-b400-ecdb8c82cbda</t>
+  </si>
+  <si>
+    <t>bed5b710-7482-449e-90db-8eb7e397cd7d</t>
+  </si>
+  <si>
+    <t>38af1d3a-84f3-48ed-887e-9cfa3d93cdf9</t>
+  </si>
+  <si>
+    <t>2ab2f967-ac1a-4410-b70a-52a139974fee</t>
+  </si>
+  <si>
+    <t>8e048eb0-6007-46a6-a207-688b80eb98af</t>
+  </si>
+  <si>
+    <t>eea18a8c-5613-4e0a-b3e1-aeb18c28630a</t>
+  </si>
+  <si>
+    <t>ba532843-cc59-4e06-8abc-9628c5bd4d4c</t>
+  </si>
+  <si>
+    <t>601fc520-8606-4f4b-ba52-4f93aa235fd3</t>
+  </si>
+  <si>
+    <t>047b1131-db79-45c4-9f58-449bab2a01ae</t>
+  </si>
+  <si>
+    <t>7ac55da8-69e0-4637-b08c-04473235f75d</t>
+  </si>
+  <si>
+    <t>ed3d0066-8324-4807-bb70-f1160e64626d</t>
+  </si>
+  <si>
+    <t>4f10f728-90e4-4122-a3c0-058f66c14b9f</t>
+  </si>
+  <si>
+    <t>794685aa-89c7-4e9c-b828-ca2b3618f2ce</t>
+  </si>
+  <si>
+    <t>b9a58dc2-20b1-45a6-b124-3cc81b42cb79</t>
+  </si>
+  <si>
+    <t>24124c7b-9e5f-480f-900a-511ae95ea538</t>
+  </si>
+  <si>
+    <t>fae92d38-06dd-41c9-a866-8e49f2d22624</t>
+  </si>
+  <si>
+    <t>5e2ed20a-9f8b-46c4-a893-6edf5e55c336</t>
+  </si>
+  <si>
+    <t>558d31a8-594f-403f-b56a-ed20aa8d0822</t>
+  </si>
+  <si>
+    <t>969223c9-e494-454d-b774-1bfa8bb89cfc</t>
+  </si>
+  <si>
+    <t>fb5199d8-b488-49a5-abce-c1d286634925</t>
+  </si>
+  <si>
+    <t>dca7f7d1-5b28-4742-8c70-e37259480f68</t>
+  </si>
+  <si>
+    <t>a4d18758-f590-41e0-bac9-c5310d005755</t>
+  </si>
+  <si>
+    <t>e04437df-0fca-4028-93c2-82ddf4e940e1</t>
+  </si>
+  <si>
+    <t>66a6d69e-dd38-4402-850f-b6410b723b98</t>
+  </si>
+  <si>
+    <t>89440b3b-f8a6-45f5-9a11-ac0b7356e5c0</t>
+  </si>
+  <si>
+    <t>295f1aeb-3175-4473-8a94-745c27a171b2</t>
+  </si>
+  <si>
+    <t>6772657f-b72b-4fef-b437-f13c51f1be43</t>
+  </si>
+  <si>
+    <t>5a77e39d-af0c-477e-9dd9-d8176574f958</t>
+  </si>
+  <si>
+    <t>8dc8d0d5-35e0-49a7-8e5b-7f67d646ddc2</t>
+  </si>
+  <si>
+    <t>8d37eb53-977e-4799-85ee-f30c53ce822e</t>
+  </si>
+  <si>
+    <t>267028df-de38-43e0-ac1d-f3c67015862d</t>
+  </si>
+  <si>
+    <t>00e92daa-5b2d-4de3-93da-34453966efb4</t>
+  </si>
+  <si>
+    <t>776451e3-90ce-4ec1-ae74-dea65dc39f9b</t>
+  </si>
+  <si>
+    <t>60f98196-1939-4a36-9e2e-a13fb0a28f51</t>
+  </si>
+  <si>
+    <t>9d182e6a-390b-4f2f-8768-80e068a78166</t>
+  </si>
+  <si>
+    <t>7c306054-2a1b-4088-9ea2-ec5ec6bc36ac</t>
+  </si>
+  <si>
+    <t>b0fd6175-a5b2-448b-b76c-0e7111dde8f4</t>
+  </si>
+  <si>
+    <t>3fa2b5c2-a8cb-45a8-90ab-f9fdb7021784</t>
+  </si>
+  <si>
+    <t>41408e15-30de-4e77-9f6e-e156f3e9a311</t>
+  </si>
+  <si>
+    <t>2f6dcae8-fd5b-444f-a84a-c9a0a6c6d644</t>
+  </si>
+  <si>
+    <t>64b63961-880b-4cad-a62e-71fb559e0c2f</t>
+  </si>
+  <si>
+    <t>e448e040-e275-4b57-9a0a-3e9e944922b5</t>
+  </si>
+  <si>
+    <t>e4e0adc1-843e-478b-9b25-c94d2b1d72c9</t>
+  </si>
+  <si>
+    <t>a0d0baba-b157-477b-beee-179d899d9830</t>
+  </si>
+  <si>
+    <t>7bfd25c7-0578-4114-aa9c-a3efb5f72498</t>
+  </si>
+  <si>
+    <t>15702d0a-77cb-453d-b689-7a27809d1adc</t>
+  </si>
+  <si>
+    <t>4602b361-a0f4-4247-b54d-d5c96fb9c053</t>
+  </si>
+  <si>
+    <t>00b856e1-156d-4d1f-aa0d-62e77b12b872</t>
+  </si>
+  <si>
+    <t>7279d806-c631-4bb4-a689-9d38f3734a64</t>
+  </si>
+  <si>
+    <t>56dda2ff-0430-49f6-89bf-de8c15bb3efa</t>
+  </si>
+  <si>
+    <t>9ef1235b-3b5f-4728-ba43-ab140f4db44d</t>
+  </si>
+  <si>
+    <t>65df43af-e1fa-47b8-92fd-09625b3df324</t>
+  </si>
+  <si>
+    <t>86459452-c027-4056-87f7-b38333c0194b</t>
+  </si>
+  <si>
+    <t>c0ec00d2-b811-407d-8768-4a96118f9f07</t>
+  </si>
+  <si>
+    <t>17617678-e7b0-44f7-b146-4e1479743127</t>
+  </si>
+  <si>
+    <t>1117ece2-6b6c-4511-a233-4350b2a9d53c</t>
+  </si>
+  <si>
+    <t>6232e006-aea0-4b48-bd7b-26f34d9bff2b</t>
+  </si>
+  <si>
+    <t>00947dc3-d7e3-4953-8c62-9c9a883292cf</t>
+  </si>
+  <si>
+    <t>5b1ec779-ce27-4bf7-9c9f-99c5e726d758</t>
+  </si>
+  <si>
+    <t>7b8bb542-d15e-45e3-8dca-3802c428a125</t>
+  </si>
+  <si>
+    <t>b561311f-acdd-40c0-9354-c049370b84ef</t>
   </si>
 </sst>
 </file>
@@ -1548,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A191"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1979,541 +1658,6 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
